--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 30721-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 30721-2019.xlsx", "A 30721-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 30721-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 30721-2019.png", "A 30721-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 30721-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 30721-2019.docx", "A 30721-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 30721-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 30721-2019.docx", "A 30721-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 30721-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 30721-2019.docx", "A 30721-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 30721-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 30721-2019.docx", "A 30721-2019")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -711,27 +711,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 30713-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 30713-2019.xlsx", "A 30713-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 30713-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 30713-2019.png", "A 30713-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 30713-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 30713-2019.docx", "A 30713-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 30713-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 30713-2019.docx", "A 30713-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 30713-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 30713-2019.docx", "A 30713-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 30713-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 30713-2019.docx", "A 30713-2019")</f>
         <v/>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -797,27 +797,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 18228-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 18228-2020.xlsx", "A 18228-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 18228-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 18228-2020.png", "A 18228-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 18228-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 18228-2020.docx", "A 18228-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 18228-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 18228-2020.docx", "A 18228-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 18228-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 18228-2020.docx", "A 18228-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 18228-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 18228-2020.docx", "A 18228-2020")</f>
         <v/>
       </c>
     </row>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -883,27 +883,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 5244-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 5244-2021.xlsx", "A 5244-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 5244-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 5244-2021.png", "A 5244-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 5244-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 5244-2021.docx", "A 5244-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 5244-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 5244-2021.docx", "A 5244-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 5244-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 5244-2021.docx", "A 5244-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 5244-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 5244-2021.docx", "A 5244-2021")</f>
         <v/>
       </c>
     </row>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,27 +969,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 29029-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 29029-2023.xlsx", "A 29029-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 29029-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 29029-2023.png", "A 29029-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 29029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 29029-2023.docx", "A 29029-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 29029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 29029-2023.docx", "A 29029-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 29029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 29029-2023.docx", "A 29029-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 29029-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 29029-2023.docx", "A 29029-2023")</f>
         <v/>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1055,27 +1055,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 29032-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 29032-2023.xlsx", "A 29032-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 29032-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 29032-2023.png", "A 29032-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 29032-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 29032-2023.docx", "A 29032-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 29032-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 29032-2023.docx", "A 29032-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 29032-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 29032-2023.docx", "A 29032-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 29032-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 29032-2023.docx", "A 29032-2023")</f>
         <v/>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1141,27 +1141,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 31697-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 31697-2023.xlsx", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 31697-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 31697-2023.png", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 31697-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 31697-2023.docx", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 31697-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 31697-2023.docx", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 31697-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 31697-2023.docx", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 31697-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 31697-2023.docx", "A 31697-2023")</f>
         <v/>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1226,27 +1226,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 36249-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 36249-2018.xlsx", "A 36249-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 36249-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 36249-2018.png", "A 36249-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 36249-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 36249-2018.docx", "A 36249-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 36249-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 36249-2018.docx", "A 36249-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 36249-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 36249-2018.docx", "A 36249-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 36249-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 36249-2018.docx", "A 36249-2018")</f>
         <v/>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,27 +1311,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 30710-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 30710-2019.xlsx", "A 30710-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 30710-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 30710-2019.png", "A 30710-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 30710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 30710-2019.docx", "A 30710-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 30710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 30710-2019.docx", "A 30710-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 30710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 30710-2019.docx", "A 30710-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 30710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 30710-2019.docx", "A 30710-2019")</f>
         <v/>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1396,27 +1396,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 46202-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 46202-2019.xlsx", "A 46202-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 46202-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 46202-2019.png", "A 46202-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 46202-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 46202-2019.docx", "A 46202-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 46202-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 46202-2019.docx", "A 46202-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 46202-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 46202-2019.docx", "A 46202-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 46202-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 46202-2019.docx", "A 46202-2019")</f>
         <v/>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1481,27 +1481,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 30733-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 30733-2020.xlsx", "A 30733-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 30733-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 30733-2020.png", "A 30733-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 30733-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 30733-2020.docx", "A 30733-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 30733-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 30733-2020.docx", "A 30733-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 30733-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 30733-2020.docx", "A 30733-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 30733-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 30733-2020.docx", "A 30733-2020")</f>
         <v/>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1566,27 +1566,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 18464-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 18464-2022.xlsx", "A 18464-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 18464-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 18464-2022.png", "A 18464-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 18464-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 18464-2022.docx", "A 18464-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 18464-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 18464-2022.docx", "A 18464-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 18464-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 18464-2022.docx", "A 18464-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 18464-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 18464-2022.docx", "A 18464-2022")</f>
         <v/>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1651,27 +1651,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 16684-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 16684-2023.xlsx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 16684-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 16684-2023.png", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 16684-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 16684-2023.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 16684-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 16684-2023.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 16684-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 16684-2023.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 16684-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 16684-2023.docx", "A 16684-2023")</f>
         <v/>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,27 +1736,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 31700-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/artfynd/A 31700-2023.xlsx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 31700-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/kartor/A 31700-2023.png", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 31700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomål/A 31700-2023.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 31700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/klagomålsmail/A 31700-2023.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 31700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsyn/A 31700-2023.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 31700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVEDALA/tillsynsmail/A 31700-2023.docx", "A 31700-2023")</f>
         <v/>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -572,7 +572,7 @@
         <v>43636</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43636</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43928</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44229</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>45117</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>43636</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>43713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45030</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45117</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43439</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43642</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43713</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43766</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43929</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44047</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44182</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>44524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44907</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45030</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>45048</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45160</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
